--- a/AAII_Financials/Yearly/IPLDP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IPLDP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2089600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2042300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1870300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1820400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1774500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1848100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1818800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1650300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1299200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1354100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1273400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1284900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1269800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1387300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1361300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1208100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>790400</v>
+      </c>
+      <c r="E10" s="3">
         <v>688200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>596900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>535500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>504700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>460800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>457500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>442200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,36 +898,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E15" s="3">
         <v>283500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>245000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>210800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>207200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>197500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>191100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>188900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1686800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1691500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1573400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1549600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1532600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1638900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1606800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1450000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>402800</v>
+      </c>
+      <c r="E18" s="3">
         <v>350800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>296900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>270800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>241900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>209200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>212000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>722600</v>
+      </c>
+      <c r="E21" s="3">
         <v>631700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>542100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>481900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>449300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>404400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>403400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>389400</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E22" s="3">
         <v>77200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>81000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>68600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>64000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>318400</v>
+      </c>
+      <c r="E23" s="3">
         <v>271000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>216100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>219900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>173500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>142900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>152000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>130400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-22700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-51700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-37900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-19800</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>294300</v>
+      </c>
+      <c r="E26" s="3">
         <v>273800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>228700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>225800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>196200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>194600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>189900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>150200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>284100</v>
+      </c>
+      <c r="E27" s="3">
         <v>263600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>218500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>215600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>186000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>184400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>173600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>137600</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,20 +1283,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>284100</v>
+      </c>
+      <c r="E33" s="3">
         <v>264000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>216800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>215600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>186000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>184400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>173600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>137600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>284100</v>
+      </c>
+      <c r="E35" s="3">
         <v>264000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>216800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>215600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>186000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>184400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>173600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>137600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,117 +1616,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E43" s="3">
         <v>153500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>264900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>240700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>216700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>246900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>123800</v>
+      </c>
+      <c r="E44" s="3">
         <v>126300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>133300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>133100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>124100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>125500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>133900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>125700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E45" s="3">
         <v>82300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>74200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>67800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>207700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>238400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>223700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>409400</v>
+      </c>
+      <c r="E46" s="3">
         <v>371800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>476000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>422500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>396400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>555200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>535900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>391600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1647,51 +1751,57 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>19100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17600</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7480700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6781500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5926200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5435600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4925100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4554700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4170200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3974900</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1716,9 +1826,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1387400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1258100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1203800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1445800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1368000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1321200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1135900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1209400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9277500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8411400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7606000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7304700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6709100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6450200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5806000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5457000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E57" s="3">
         <v>333700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>270400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>229600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>234900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>290900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>216200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>192500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E58" s="3">
         <v>50400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>350000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>150000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>38400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>423500</v>
+      </c>
+      <c r="E59" s="3">
         <v>223000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>207300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>292200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>296200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>265000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>320800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>333700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>830500</v>
+      </c>
+      <c r="E60" s="3">
         <v>607100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>827700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>521800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>531100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>705900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>524300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>468800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2947300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2552300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2056000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2153500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1856900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1608000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1520000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1359500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2027900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2021300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2012600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2180400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2125800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2152000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1882000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1964400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5805700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5180700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4896300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4855700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4513800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4465900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3926300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3792700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2239,11 +2406,14 @@
         <v>200000</v>
       </c>
       <c r="J70" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K70" s="3">
         <v>145100</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>890600</v>
+      </c>
+      <c r="E72" s="3">
         <v>774500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>678500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>617800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>554100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>508100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>493500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>448000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3271800</v>
+      </c>
+      <c r="E76" s="3">
         <v>3030700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2509700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2249000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1995300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1784300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1679700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1519200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>284100</v>
+      </c>
+      <c r="E81" s="3">
         <v>264000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>216800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>215600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>186000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>184400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>173600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>137600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>326700</v>
+      </c>
+      <c r="E83" s="3">
         <v>283500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>245000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>210800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>207200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>197500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>191100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>188900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-104900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>385000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>406100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>232600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>291000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1019600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-990700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-676000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-689700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-619300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-526000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-307500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-667000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-429400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-241900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-228600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-511900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-552700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-423300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-331200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2835,26 +3068,29 @@
         <v>-168000</v>
       </c>
       <c r="E96" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-156100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-151900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-140000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-150200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-138900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-135500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,36 +3175,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E100" s="3">
         <v>439600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>266700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>330500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>126100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>147500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>190600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>42600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2987,34 +3235,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IPLDP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IPLDP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1947000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2089600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2042300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1870300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1820400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1774500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1848100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1818800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1650300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1124000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1299200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1354100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1273400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1284900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1269800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1387300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1361300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1208100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>823000</v>
+      </c>
+      <c r="E10" s="3">
         <v>790400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>688200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>596900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>535500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>504700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>460800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>457500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>442200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E15" s="3">
         <v>326700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>283500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>245000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>210800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>207200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>197500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>191100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>188900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1537000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1686800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1691500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1573400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1549600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1532600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1638900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1606800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1450000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E18" s="3">
         <v>402800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>350800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>296900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>270800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>241900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>209200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>212000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E21" s="3">
         <v>722600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>631700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>542100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>481900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>449300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>404400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>403400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>389400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E22" s="3">
         <v>77500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>77200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>81000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>68600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>64000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E23" s="3">
         <v>318400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>271000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>216100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>219900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>173500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>142900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>152000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>130400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E24" s="3">
         <v>24100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-22700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-51700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-37900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E26" s="3">
         <v>294300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>273800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>228700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>225800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>196200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>194600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>189900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E27" s="3">
         <v>284100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>263600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>218500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>215600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>186000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>184400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>173600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>137600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>6900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E33" s="3">
         <v>284100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>264000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>216800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>215600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>186000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>184400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>173600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>137600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E35" s="3">
         <v>284100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>264000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>216800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>215600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>186000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>184400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>173600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>137600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,129 +1708,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E43" s="3">
         <v>202800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>153500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>264900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>240700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>216700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>246900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E44" s="3">
         <v>123800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>126300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>133300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>133100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>124100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>125500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>133900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>125700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E45" s="3">
         <v>73500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>74200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>67800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>207700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>238400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>223700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E46" s="3">
         <v>409400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>371800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>476000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>422500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>396400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>555200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>535900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>391600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1754,54 +1858,60 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>19600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7889000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7480700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6781500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5926200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5435600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4925100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4554700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4170200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3974900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1387400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1258100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1203800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1445800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1368000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1321200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1135900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1209400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9849000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9277500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8411400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7606000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7304700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6709100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6450200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5806000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5457000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2017,179 +2147,197 @@
         <v>207000</v>
       </c>
       <c r="E57" s="3">
+        <v>207000</v>
+      </c>
+      <c r="F57" s="3">
         <v>333700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>270400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>229600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>234900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>290900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>216200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>192500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>350000</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>150000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>38400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E59" s="3">
         <v>423500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>223000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>207300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>292200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>296200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>265000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>320800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>333700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E60" s="3">
         <v>830500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>607100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>827700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>521800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>531100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>705900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>524300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>468800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3345000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2947300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2552300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2056000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2153500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1856900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1608000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1520000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1359500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2093000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2027900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2021300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2012600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2180400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2125800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2152000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1882000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1964400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5885000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5805700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5180700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4896300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4855700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4513800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4465900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3926300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3792700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2409,11 +2576,14 @@
         <v>200000</v>
       </c>
       <c r="K70" s="3">
+        <v>200000</v>
+      </c>
+      <c r="L70" s="3">
         <v>145100</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E72" s="3">
         <v>890600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>774500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>678500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>617800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>554100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>508100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>493500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>448000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3764000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3271800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3030700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2509700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2249000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1995300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1784300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1679700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1519200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E81" s="3">
         <v>284100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>264000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>216800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>215600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>186000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>184400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>173600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>137600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E83" s="3">
         <v>326700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>283500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>245000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>210800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>207200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>197500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>191100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>188900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>172900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-104900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>385000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>406100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>232600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>291000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-687000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1019600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-990700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-676000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-689700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-619300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-526000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-307500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-667000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-429400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-241900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-228600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-511900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-552700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-423300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-331200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-168000</v>
+        <v>-236000</v>
       </c>
       <c r="E96" s="3">
         <v>-168000</v>
       </c>
       <c r="F96" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-156100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-151900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-140000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-150200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-138900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-135500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E100" s="3">
         <v>491000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>439600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>266700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>330500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>126100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>147500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>190600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
